--- a/Proyecto_Integrador_-_Jugueteria_Cosmica_-_Etapa_3_-_Consignas_cumplidas.xlsx
+++ b/Proyecto_Integrador_-_Jugueteria_Cosmica_-_Etapa_3_-_Consignas_cumplidas.xlsx
@@ -2083,12 +2083,12 @@
   <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B135" activeCellId="0" sqref="B135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="112"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.43"/>
